--- a/multi_growth_app/active_runs/My Experiment Run Document.xlsx
+++ b/multi_growth_app/active_runs/My Experiment Run Document.xlsx
@@ -200,7 +200,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,7 +214,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,7 +222,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,24 +261,24 @@
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="3" t="str">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v>9</v>
-      </c>
-      <c r="K3" s="5" t="n">
+        <v/>
+      </c>
+      <c r="K3" s="3" t="str">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v>10</v>
-      </c>
-      <c r="L3" s="5" t="n">
+        <v/>
+      </c>
+      <c r="L3" s="3" t="str">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v>11</v>
-      </c>
-      <c r="M3" s="5" t="n">
+        <v/>
+      </c>
+      <c r="M3" s="3" t="str">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -294,30 +294,22 @@
       <c r="E4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>12</v>
-      </c>
+      <c r="F4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,30 +328,21 @@
       <c r="E5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>12</v>
-      </c>
+      <c r="F5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
   </sheetData>
@@ -372,7 +355,7 @@
       <formula1>A16:L16</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:M5" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:M4 B5:I5 K5:M5" type="list">
       <formula1>IF(B$3 = "", "",Helper_Layout!$A$2:$L$2)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1243,813 +1226,813 @@
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "","MEDIA CONFIGURATION - 96 WELL")</f>
-        <v>MEDIA CONFIGURATION - 96 WELL</v>
+        <v/>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="I2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="J2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="K2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="F3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="I3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="J3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="K3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="I4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="J4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="K4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="F5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="I5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="K5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="F6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="I6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="J6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="K6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="F7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="H7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="I7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="J7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="K7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="L7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="E8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="F8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="I8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="J8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="K8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="E9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="F9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="H9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="I9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="J9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="K9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
-      </c>
-      <c r="L9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "","CULTURE CONFIGURATION - 96 WELL")</f>
-        <v>CULTURE CONFIGURATION - 96 WELL</v>
+        <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="B12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="F12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="I12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="J12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="K12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="L12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="B13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="C13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="D13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="F13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="H13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="I13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="J13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="K13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="L13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="F14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="H14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="I14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="J14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="K14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="B15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="C15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="F15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="H15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="I15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="J15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="K15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="L15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="B16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="C16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="F16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="G16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="H16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="I16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="J16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="K16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="L16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="B17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="C17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="F17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="G17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="H17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="I17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="J17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="K17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="L17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="B18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="F18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="G18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="H18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="I18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="J18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="K18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="L18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="B19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="C19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="D19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="F19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="G19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="H19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="I19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="J19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="K19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="L19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v>9</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2079,813 +2062,813 @@
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "","MEDIA CONFIGURATION - 96 WELL")</f>
-        <v>MEDIA CONFIGURATION - 96 WELL</v>
+        <v/>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="I5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="I6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="H7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="I7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="C8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="F8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="I8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="K8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="C9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="H9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="I9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="K9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
-      </c>
-      <c r="L9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "","CULTURE CONFIGURATION - 96 WELL")</f>
-        <v>CULTURE CONFIGURATION - 96 WELL</v>
+        <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="F12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="H12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="I12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="J12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="K12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="L12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="C13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="F13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="J13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="K13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="L13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="F14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="H14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="I14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="J14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="K14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="C15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="F15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="H15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="I15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="J15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="K15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="L15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="F16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="G16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="H16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="I16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="J16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="K16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="L16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="B17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="C17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="G17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="H17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="I17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="J17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="K17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="L17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="B18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="C18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="F18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="G18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="H18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="I18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="J18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="K18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="L18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="B19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="F19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="G19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="H19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="I19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="J19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="K19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
-      </c>
-      <c r="L19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2915,813 +2898,813 @@
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "","MEDIA CONFIGURATION - 96 WELL")</f>
-        <v>MEDIA CONFIGURATION - 96 WELL</v>
+        <v/>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="B2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="I2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="J2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="K2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="J3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="K3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="I4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="J4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="K4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="K5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="I6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="J6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="K6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="E7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="H7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="I7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="J7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="K7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="L7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="E8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="I8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="J8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="K8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="E9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="H9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="I9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="J9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="K9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
-      </c>
-      <c r="L9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "","CULTURE CONFIGURATION - 96 WELL")</f>
-        <v>CULTURE CONFIGURATION - 96 WELL</v>
+        <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="F12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="H12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="I12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="J12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="K12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="L12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="C13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="F13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="H13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="I13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="J13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="K13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="L13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="E14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="F14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="H14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="I14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="J14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="K14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="B15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="F15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="H15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="I15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="J15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="K15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="L15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="B16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="F16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="G16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="H16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="I16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="J16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="K16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="L16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="B17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="C17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="D17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="F17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="G17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="H17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="I17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="J17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="K17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="L17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="B18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="F18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="G18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="H18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="I18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="J18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="K18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="L18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="B19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="C19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="D19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="F19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="G19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="H19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="I19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="J19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="K19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
-      </c>
-      <c r="L19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3751,813 +3734,813 @@
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "","MEDIA CONFIGURATION - 96 WELL")</f>
-        <v>MEDIA CONFIGURATION - 96 WELL</v>
+        <v/>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="J2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="K2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L2" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="J3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L3" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="F4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="I4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="J4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="K4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L4" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="F5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="K5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L5" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="F6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="J6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="K6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L6" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="E7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="F7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="H7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="I7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="J7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="K7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="L7" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L7" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="C8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="F8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="J8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="K8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L8" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="C9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="D9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="E9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="H9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="I9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="J9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="K9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
-      </c>
-      <c r="L9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L9" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "","CULTURE CONFIGURATION - 96 WELL")</f>
-        <v>CULTURE CONFIGURATION - 96 WELL</v>
+        <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="F12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="H12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="I12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="J12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="K12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="L12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L12" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="C13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="F13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="H13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="I13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="J13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="K13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="L13" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L13" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="E14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="H14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="I14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="J14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="K14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L14" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="B15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="C15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="F15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="H15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="I15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="J15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="K15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="L15" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="B16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="C16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="F16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="G16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="H16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="I16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="J16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="K16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="L16" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L16" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="C17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="F17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="G17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="H17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="I17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="J17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="K17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="L17" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L17" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="B18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="C18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="G18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="H18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="I18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="J18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="K18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="L18" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L18" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="B19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="B19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="C19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="C19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="D19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="E19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="F19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="G19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="G19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="H19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="H19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="I19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="I19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="J19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="J19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="K19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
-      </c>
-      <c r="L19" s="0" t="n">
+        <v/>
+      </c>
+      <c r="L19" s="0" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4678,19 +4661,19 @@
       </c>
       <c r="I8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v>Dropdown</v>
+        <v/>
       </c>
       <c r="J8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v>Dropdown</v>
+        <v/>
       </c>
       <c r="K8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v>Dropdown</v>
+        <v/>
       </c>
       <c r="L8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v>Dropdown</v>
+        <v/>
       </c>
       <c r="M8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
@@ -7488,19 +7471,19 @@
       </c>
       <c r="I9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v>Dropdown</v>
+        <v/>
       </c>
       <c r="J9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v>Dropdown</v>
+        <v/>
       </c>
       <c r="K9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v>Dropdown</v>
+        <v/>
       </c>
       <c r="L9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v>Dropdown</v>
+        <v/>
       </c>
       <c r="M9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>

--- a/multi_growth_app/active_runs/My Experiment Run Document.xlsx
+++ b/multi_growth_app/active_runs/My Experiment Run Document.xlsx
@@ -200,7 +200,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/multi_growth_app/active_runs/My Experiment Run Document.xlsx
+++ b/multi_growth_app/active_runs/My Experiment Run Document.xlsx
@@ -200,7 +200,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,25 +286,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -320,25 +320,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -396,401 +396,401 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$4)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,401 +802,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -11115,401 +11115,401 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11521,401 +11521,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11951,401 +11951,401 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12357,401 +12357,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -12787,401 +12787,401 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13193,401 +13193,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -13623,401 +13623,401 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14029,401 +14029,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -14459,401 +14459,401 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14865,401 +14865,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -15295,401 +15295,401 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15701,401 +15701,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/multi_growth_app/active_runs/My Experiment Run Document.xlsx
+++ b/multi_growth_app/active_runs/My Experiment Run Document.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Complete_Run_Layout" sheetId="1" state="visible" r:id="rId2"/>
@@ -67,7 +67,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,6 +100,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -147,7 +154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,6 +187,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,8 +210,8 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,7 +225,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,21 +272,21 @@
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="5" t="n">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v/>
-      </c>
-      <c r="K3" s="3" t="str">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5" t="n">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v/>
-      </c>
-      <c r="L3" s="3" t="str">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5" t="n">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v/>
-      </c>
-      <c r="M3" s="3" t="str">
+        <v>11</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,10 +317,18 @@
       <c r="I4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="J4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="N4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,32 +336,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>12</v>
+      </c>
       <c r="N5" s="7"/>
     </row>
   </sheetData>
@@ -802,401 +830,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$I$4),ISBLANK(Complete_Run_Layout!$I$5),ISBLANK(Complete_Run_Layout!$I$3), Complete_Run_Layout!$I$3 = ""), "", Complete_Run_Layout!$I$5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1226,813 +1254,813 @@
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "","MEDIA CONFIGURATION - 96 WELL")</f>
-        <v/>
+        <v>MEDIA CONFIGURATION - 96 WELL</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="str">
+      <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="B2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="C2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="D2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="E2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="F2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="G2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="H2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="I2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="J2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="K2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="L2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
+      <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="B3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="C3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="D3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="E3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="F3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="G3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="H3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="I3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="J3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="K3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="L3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+      <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="C4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="D4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="E4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="F4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="I4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="J4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="K4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="L4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+      <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="B5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="C5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="D5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="E5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="F5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="G5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="H5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="I5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="J5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="K5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="L5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+      <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="B6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="C6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="D6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="E6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="F6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="G6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="H6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="I6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="J6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="K6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="L6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="str">
+      <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="B7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="D7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="E7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="F7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="H7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="I7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="J7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="L7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="str">
+      <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="B8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="C8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="D8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="E8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="F8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="G8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="H8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="I8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="J8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="K8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="L8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="str">
+      <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="B9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="C9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="D9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="E9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="F9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="G9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="H9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="I9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="J9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="K9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
-      </c>
-      <c r="L9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "","CULTURE CONFIGURATION - 96 WELL")</f>
-        <v/>
+        <v>CULTURE CONFIGURATION - 96 WELL</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="str">
+      <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="B12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="C12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="D12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="E12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="F12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="G12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="H12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="I12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="J12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="K12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="L12" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="str">
+      <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="B13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="C13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="D13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="E13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="F13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="G13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="H13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="I13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="J13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="K13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="L13" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="str">
+      <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="B14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="C14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="D14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="E14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="F14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="G14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="H14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="I14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="J14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="K14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="L14" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="str">
+      <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="B15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="C15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="D15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="E15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="F15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="G15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="H15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="I15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="J15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="K15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="L15" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="str">
+      <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="B16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="C16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="D16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="E16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="F16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="G16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="H16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="I16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="J16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="K16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="L16" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="str">
+      <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="B17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="C17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="D17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="E17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="F17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="G17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="H17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="I17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="J17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="K17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="L17" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="str">
+      <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="B18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="C18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="D18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="E18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="F18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="G18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="H18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="I18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="J18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="K18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="L18" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="str">
+      <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="B19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="C19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="D19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="E19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="F19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="G19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="H19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="I19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="J19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="K19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
-      </c>
-      <c r="L19" s="0" t="str">
+        <v>9</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$J$4),ISBLANK(Complete_Run_Layout!$J$5),ISBLANK(Complete_Run_Layout!$J$3), Complete_Run_Layout!$J$3 = ""), "", Complete_Run_Layout!$J$5)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2062,813 +2090,813 @@
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "","MEDIA CONFIGURATION - 96 WELL")</f>
-        <v/>
+        <v>MEDIA CONFIGURATION - 96 WELL</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="str">
+      <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="B2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="C2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="D2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="E2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="F2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="G2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="H2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="I2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="J2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="K2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="L2" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
+      <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="B3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="C3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="D3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="E3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="F3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="G3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="H3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="I3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="J3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="K3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="L3" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+      <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="C4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="D4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="E4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="F4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="I4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="J4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="K4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="L4" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+      <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="B5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="C5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="D5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="E5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="F5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="G5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="H5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="I5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="J5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="K5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="L5" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+      <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="B6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="C6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="D6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="E6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="F6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="G6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="H6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="I6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="J6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="K6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="L6" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="str">
+      <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="B7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="D7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="E7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="F7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="H7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="I7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="J7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="L7" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="str">
+      <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="B8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="C8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="D8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="E8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="F8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="G8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="H8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="I8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="J8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="K8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="L8" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="str">
+      <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="B9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="C9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="D9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="E9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="F9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="G9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="H9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="I9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="J9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="K9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
-      </c>
-      <c r="L9" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$4)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "","CULTURE CONFIGURATION - 96 WELL")</f>
-        <v/>
+        <v>CULTURE CONFIGURATION - 96 WELL</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="str">
+      <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="B12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="C12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="D12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="E12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="F12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="G12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="H12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="I12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="J12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="K12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="L12" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="str">
+      <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="B13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="C13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="D13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="E13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="F13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="G13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="H13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="I13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="J13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="K13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="L13" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="str">
+      <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="B14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="C14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="D14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="E14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="F14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="G14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="H14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="I14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="J14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="K14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="L14" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="str">
+      <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="B15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="C15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="D15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="E15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="F15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="G15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="H15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="I15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="J15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="K15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="L15" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="str">
+      <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="B16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="C16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="D16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="E16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="F16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="G16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="H16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="I16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="J16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="K16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="L16" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="str">
+      <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="B17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="C17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="D17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="E17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="F17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="G17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="H17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="I17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="J17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="K17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="L17" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="str">
+      <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="B18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="C18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="D18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="E18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="F18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="G18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="H18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="I18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="J18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="K18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="L18" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="str">
+      <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="B19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="C19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="D19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="E19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="F19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="G19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="H19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="I19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="J19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="K19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
-      </c>
-      <c r="L19" s="0" t="str">
+        <v>10</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$K$4),ISBLANK(Complete_Run_Layout!$K$5),ISBLANK(Complete_Run_Layout!$K$3), Complete_Run_Layout!$K$3 = ""), "", Complete_Run_Layout!$K$5)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2917,7 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -2898,813 +2926,813 @@
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "","MEDIA CONFIGURATION - 96 WELL")</f>
-        <v/>
+        <v>MEDIA CONFIGURATION - 96 WELL</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="str">
+      <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="B2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="C2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="D2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="E2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="F2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="G2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="H2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="I2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="J2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="K2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="L2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
+      <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="B3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="C3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="D3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="E3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="F3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="G3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="H3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="I3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="J3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="K3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="L3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+      <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="C4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="D4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="E4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="F4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="I4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="J4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="K4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="L4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+      <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="B5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="C5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="D5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="E5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="F5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="G5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="H5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="I5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="J5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="K5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="L5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+      <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="B6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="C6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="D6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="E6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="F6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="G6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="H6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="I6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="J6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="K6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="L6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="str">
+      <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="B7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="D7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="E7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="F7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="H7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="I7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="J7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="L7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="str">
+      <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="B8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="C8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="D8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="E8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="F8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="G8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="H8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="I8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="J8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="K8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="L8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="str">
+      <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="B9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="C9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="D9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="E9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="F9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="G9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="H9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="I9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="J9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="K9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
-      </c>
-      <c r="L9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "","CULTURE CONFIGURATION - 96 WELL")</f>
-        <v/>
+        <v>CULTURE CONFIGURATION - 96 WELL</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="str">
+      <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="B12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="C12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="D12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="E12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="F12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="G12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="H12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="I12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="J12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="K12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="L12" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="str">
+      <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="B13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="C13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="D13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="E13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="F13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="G13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="H13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="I13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="J13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="K13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="L13" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="str">
+      <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="B14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="C14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="D14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="E14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="F14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="G14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="H14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="I14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="J14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="K14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="L14" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="str">
+      <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="B15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="C15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="D15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="E15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="F15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="G15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="H15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="I15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="J15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="K15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="L15" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="str">
+      <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="B16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="C16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="D16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="E16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="F16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="G16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="H16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="I16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="J16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="K16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="L16" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="str">
+      <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="B17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="C17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="D17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="E17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="F17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="G17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="H17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="I17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="J17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="K17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="L17" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="str">
+      <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="B18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="C18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="D18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="E18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="F18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="G18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="H18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="I18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="J18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="K18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="L18" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="str">
+      <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="B19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="C19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="D19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="E19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="F19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="G19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="H19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="I19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="J19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="K19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
-      </c>
-      <c r="L19" s="0" t="str">
+        <v>11</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$L$4),ISBLANK(Complete_Run_Layout!$L$5),ISBLANK(Complete_Run_Layout!$L$3), Complete_Run_Layout!$L$3 = ""), "", Complete_Run_Layout!$L$5)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3734,813 +3762,813 @@
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "","MEDIA CONFIGURATION - 96 WELL")</f>
-        <v/>
+        <v>MEDIA CONFIGURATION - 96 WELL</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="str">
+      <c r="A2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="B2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="C2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="D2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="E2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="F2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="G2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="H2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="I2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="J2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="K2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="L2" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
+      <c r="A3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="B3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="C3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="D3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="E3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="F3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="G3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="H3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="I3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="J3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="K3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="L3" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+      <c r="A4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="C4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="D4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="E4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="F4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="I4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="J4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="K4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="L4" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+      <c r="A5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="B5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="C5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="D5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="E5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="F5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="G5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="H5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="I5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="J5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="K5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="L5" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+      <c r="A6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="B6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="C6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="D6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="E6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="F6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="G6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="H6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="I6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="J6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="K6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="L6" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="str">
+      <c r="A7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="B7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="D7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="E7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="F7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="H7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="I7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="J7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="L7" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="str">
+      <c r="A8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="B8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="C8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="D8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="E8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="F8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="G8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="H8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="I8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="J8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="K8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="L8" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="str">
+      <c r="A9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="B9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="C9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="D9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="E9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="F9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="G9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="H9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="I9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="J9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="K9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
-      </c>
-      <c r="L9" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$4)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="str">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "","CULTURE CONFIGURATION - 96 WELL")</f>
-        <v/>
+        <v>CULTURE CONFIGURATION - 96 WELL</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="str">
+      <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="B12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="C12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="D12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="E12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="F12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="G12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="H12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="I12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="J12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="K12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="L12" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="str">
+      <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="B13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="C13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="D13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="E13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="F13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="G13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="H13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="I13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="J13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="K13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="L13" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="str">
+      <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="B14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="C14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="D14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="E14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="F14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="G14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="H14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="I14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="J14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="K14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="L14" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="str">
+      <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="B15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="C15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="D15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="E15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="F15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="G15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="H15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="I15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="J15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="K15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="L15" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="str">
+      <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="B16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="C16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="D16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="E16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="F16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="G16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="H16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="I16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="J16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="K16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="L16" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="str">
+      <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="B17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="C17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="D17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="E17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="F17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="G17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="H17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="I17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="J17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="K17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="L17" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="str">
+      <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="B18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="C18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="D18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="E18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="F18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="G18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="H18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="I18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="J18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="K18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="L18" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="str">
+      <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="B19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="C19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="D19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="E19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="F19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="G19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="H19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="I19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="J19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="K19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
-      </c>
-      <c r="L19" s="0" t="str">
+        <v>12</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$M$4),ISBLANK(Complete_Run_Layout!$M$5),ISBLANK(Complete_Run_Layout!$M$3), Complete_Run_Layout!$M$3 = ""), "", Complete_Run_Layout!$M$5)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4661,19 +4689,19 @@
       </c>
       <c r="I8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="J8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="K8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="L8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="M8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
@@ -7471,19 +7499,19 @@
       </c>
       <c r="I9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="J9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="K9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="L9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="M9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
@@ -10265,7 +10293,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10685,401 +10713,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$B$4),ISBLANK(Complete_Run_Layout!$B$5),ISBLANK(Complete_Run_Layout!$B$3), Complete_Run_Layout!$B$3 = ""), "", Complete_Run_Layout!$B$5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -11521,401 +11549,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$C$4),ISBLANK(Complete_Run_Layout!$C$5),ISBLANK(Complete_Run_Layout!$C$3), Complete_Run_Layout!$C$3 = ""), "", Complete_Run_Layout!$C$5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -12357,401 +12385,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$D$4),ISBLANK(Complete_Run_Layout!$D$5),ISBLANK(Complete_Run_Layout!$D$3), Complete_Run_Layout!$D$3 = ""), "", Complete_Run_Layout!$D$5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -13193,401 +13221,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$E$4),ISBLANK(Complete_Run_Layout!$E$5),ISBLANK(Complete_Run_Layout!$E$3), Complete_Run_Layout!$E$3 = ""), "", Complete_Run_Layout!$E$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -14029,401 +14057,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$F$4),ISBLANK(Complete_Run_Layout!$F$5),ISBLANK(Complete_Run_Layout!$F$3), Complete_Run_Layout!$F$3 = ""), "", Complete_Run_Layout!$F$5)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -14865,401 +14893,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$G$4),ISBLANK(Complete_Run_Layout!$G$5),ISBLANK(Complete_Run_Layout!$G$3), Complete_Run_Layout!$G$3 = ""), "", Complete_Run_Layout!$G$5)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -15701,401 +15729,401 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">IF(OR(ISBLANK(Complete_Run_Layout!$H$4),ISBLANK(Complete_Run_Layout!$H$5),ISBLANK(Complete_Run_Layout!$H$3), Complete_Run_Layout!$H$3 = ""), "", Complete_Run_Layout!$H$5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
